--- a/asian-punk-satasupe/checklist.xlsx
+++ b/asian-punk-satasupe/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/asian-punk-satasupe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDB3FB3-3A8E-994B-A6E4-404E4F8E6404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D17CE4B0-7AC7-1F44-9E4D-5336672380F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{BDF9B8A6-31E5-B348-8603-B57D60FF7100}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -267,7 +267,7 @@
     <t>Red and Black Bride</t>
   </si>
   <si>
-    <t>red_and_black_bridge.jpg</t>
+    <t>red_and_black_bride.jpg</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
